--- a/src/test/resources/sample_no_header.xlsx
+++ b/src/test/resources/sample_no_header.xlsx
@@ -12,13 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>col0</t>
-  </si>
-  <si>
-    <t>col1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>田中太郎</t>
   </si>
@@ -77,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -87,47 +81,39 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
+      <c r="B1" t="n" s="0">
+        <v>25.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n" s="0">
         <v>27.0</v>
       </c>
     </row>

--- a/src/test/resources/sample_no_header.xlsx
+++ b/src/test/resources/sample_no_header.xlsx
@@ -12,21 +12,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>田中太郎</t>
+  </si>
+  <si>
+    <t>エンジニア</t>
+  </si>
+  <si>
+    <t>東京</t>
   </si>
   <si>
     <t>佐藤花子</t>
   </si>
   <si>
+    <t>デザイナー</t>
+  </si>
+  <si>
+    <t>大阪</t>
+  </si>
+  <si>
     <t>山田次郎</t>
+  </si>
+  <si>
+    <t>営業</t>
+  </si>
+  <si>
+    <t>福岡</t>
   </si>
   <si>
     <t>高橋健太</t>
   </si>
   <si>
+    <t>マネージャー</t>
+  </si>
+  <si>
+    <t>名古屋</t>
+  </si>
+  <si>
     <t>伊藤美咲</t>
+  </si>
+  <si>
+    <t>横浜</t>
   </si>
 </sst>
 </file>
@@ -71,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -84,37 +111,67 @@
       <c r="B1" t="n" s="0">
         <v>25.0</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n" s="0">
         <v>30.0</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>28.0</v>
       </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>35.0</v>
       </c>
+      <c r="C4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="n" s="0">
-        <v>27.0</v>
+      <c r="D5" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/sample_no_header.xlsx
+++ b/src/test/resources/sample_no_header.xlsx
@@ -12,48 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>田中太郎</t>
-  </si>
-  <si>
-    <t>エンジニア</t>
-  </si>
-  <si>
-    <t>東京</t>
   </si>
   <si>
     <t>佐藤花子</t>
   </si>
   <si>
-    <t>デザイナー</t>
-  </si>
-  <si>
-    <t>大阪</t>
-  </si>
-  <si>
     <t>山田次郎</t>
-  </si>
-  <si>
-    <t>営業</t>
-  </si>
-  <si>
-    <t>福岡</t>
   </si>
   <si>
     <t>高橋健太</t>
   </si>
   <si>
-    <t>マネージャー</t>
-  </si>
-  <si>
-    <t>名古屋</t>
-  </si>
-  <si>
     <t>伊藤美咲</t>
-  </si>
-  <si>
-    <t>横浜</t>
   </si>
 </sst>
 </file>
@@ -98,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -111,67 +84,37 @@
       <c r="B1" t="n" s="0">
         <v>25.0</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
         <v>30.0</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>5</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>28.0</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>8</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>35.0</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>
